--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D64A91-AF4B-4A0D-B1CD-DCF233052BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38280" yWindow="5100" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,19 +91,27 @@
     <t>你是，誰</t>
   </si>
   <si>
-    <t xml:space="preserve">    en </t>
+    <t xml:space="preserve">en </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,74 +143,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -221,7 +162,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -475,18 +416,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,6 +530,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>